--- a/biology/Botanique/Limbella/Limbella.xlsx
+++ b/biology/Botanique/Limbella/Limbella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Limbella est un genre de mousses de la famille des Neckeraceae[1] ou des Amblystegiaceae[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Limbella est un genre de mousses de la famille des Neckeraceae ou des Amblystegiaceae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ce genre comporte les espèces suivantes[réf. souhaitée] :
 Limbella fryei, (R.S. Williams) Ochyra.
@@ -546,14 +560,16 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (1 août 2018)[3] et ITIS      (1 août 2018)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (1 août 2018) et ITIS      (1 août 2018) :
 Limbella fryei (Williams) Ochyra
-Selon Catalogue of Life                                   (1 août 2018)[5] :
+Selon Catalogue of Life                                   (1 août 2018) :
 Limbella fryei Ochyra, 1986
 Limbella tricostata C. Müller ex E. B. Bartram, 1933
-Selon The Plant List            (1 août 2018)[6] et Tropicos                                           (1 août 2018)[1] :
+Selon The Plant List            (1 août 2018) et Tropicos                                           (1 août 2018) :
 Limbella bartlettii (H.A. Crum &amp; Steere) W.R. Buck
 Limbella fryei (R.S. Williams) Ochyra
 Limbella tricostata (Sull.) Müll. Hal. ex E.B. Bartram</t>
